--- a/dmn.tool/docs/DMN_mike.xlsx
+++ b/dmn.tool/docs/DMN_mike.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BBB61217-D539-498D-A3D5-7863ED06BD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="长阳铺#2主变投运前" sheetId="9" r:id="rId1"/>
+    <sheet name="长阳铺#2主变投运后" sheetId="11" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <oleSize ref="A1:N31"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="78">
   <si>
     <t>input</t>
   </si>
@@ -142,26 +141,229 @@
   </si>
   <si>
     <t>T1_output1</t>
+  </si>
+  <si>
+    <t>T2_参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳铺主变1功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳铺主变2功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_P4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_Input1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_P1+T2_P2 &gt; 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_P3+T2_P4 &gt; 900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_P1+T2_P2 &gt; 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳铺任一台主变停运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_P3+T2_P4 &gt; 600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T1_6</t>
+  </si>
+  <si>
+    <t>string[正常方式、民丰任一台主变停运、长阳铺任一台主变停运]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T1_2</t>
+  </si>
+  <si>
+    <t>Rule_T1_3</t>
+  </si>
+  <si>
+    <t>Rule_T1_4</t>
+  </si>
+  <si>
+    <t>Rule_T1_5</t>
+  </si>
+  <si>
+    <t>Rule_T1_7</t>
+  </si>
+  <si>
+    <t>Rule_T1_8</t>
+  </si>
+  <si>
+    <t>Rule_T1_9</t>
+  </si>
+  <si>
+    <t>Rule_T1_10</t>
+  </si>
+  <si>
+    <t>Rule_T1_11</t>
+  </si>
+  <si>
+    <t>Rule_T1_12</t>
+  </si>
+  <si>
+    <t>T2_P5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_P7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳铺变下网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湍宝线送宝庆潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉永线送永丰潮流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民丰2台主变功率之和越界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳铺2台主变功率之和越界</t>
+  </si>
+  <si>
+    <t>T2_P5*0.1+T2_P6 &gt; 260</t>
+  </si>
+  <si>
+    <t>T2_P5*0.07+T2_P7 &gt; 260</t>
+  </si>
+  <si>
+    <t>T2_P5*0.35+T2_P6 &gt; 260</t>
+  </si>
+  <si>
+    <t>T2_P5*0.23+T2_P7 &gt; 260</t>
+  </si>
+  <si>
+    <r>
+      <t>长阳铺变下网（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上网）的10%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湍宝线送宝庆（湍江）潮流功率之和越界</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳铺变下网（上网）的7%+吉永线送永丰（吉星）潮流功率之和越界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>长阳铺变下网（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上网）的35%+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湍宝线送宝庆（湍江）潮流功率之和越界</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳铺变下网（上网）的23%+吉永线送永丰（吉星）潮流功率之和越界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2_output1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -196,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +441,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,38 +738,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="35.25" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
@@ -600,7 +835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45">
+    <row r="4" spans="1:9" ht="27">
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -621,7 +856,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -644,7 +879,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="12"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="11" t="s">
         <v>3</v>
       </c>
@@ -665,7 +900,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -688,7 +923,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="13"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="11" t="s">
         <v>3</v>
       </c>
@@ -756,4 +991,587 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="12" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="17.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="24.875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="40.5">
+      <c r="B4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" collapsed="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B8" s="20"/>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B9" s="20"/>
+      <c r="C9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" collapsed="1">
+      <c r="B11" s="21"/>
+      <c r="C11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B12" s="21"/>
+      <c r="C12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B13" s="21"/>
+      <c r="C13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" collapsed="1">
+      <c r="B15" s="22"/>
+      <c r="C15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B16" s="22"/>
+      <c r="C16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dmn.tool/docs/DMN_mike.xlsx
+++ b/dmn.tool/docs/DMN_mike.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="84">
   <si>
     <t>input</t>
   </si>
@@ -40,9 +40,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>T1_参数1</t>
-  </si>
-  <si>
     <t>ruleId</t>
   </si>
   <si>
@@ -86,63 +83,27 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>民丰主变1功率</t>
-  </si>
-  <si>
-    <t>T1_P1</t>
-  </si>
-  <si>
     <t>民丰主变2功率</t>
   </si>
   <si>
-    <t>T1_P2</t>
-  </si>
-  <si>
-    <t>长阳铺主变功率</t>
-  </si>
-  <si>
-    <t>T1_P3</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>民丰、长阳铺3台主变功率之和越界</t>
-  </si>
-  <si>
-    <t>T1_P1+T1_P2+T1_P3 &gt; 1400</t>
-  </si>
-  <si>
     <t>民丰2台主变功率之和越界</t>
   </si>
   <si>
-    <t>T1_P1+T1_P2+T1_P3 &gt; 950</t>
-  </si>
-  <si>
     <t>T1_P1+T1_P2 &gt; 500</t>
   </si>
   <si>
-    <t>T1_P1+T1_P2 &gt; 1000</t>
-  </si>
-  <si>
     <t>T1_P1+T1_P2 &gt; 950</t>
   </si>
   <si>
-    <t>长阳铺主变停运</t>
-  </si>
-  <si>
     <t>越界判断</t>
   </si>
   <si>
     <t>越界结果</t>
   </si>
   <si>
-    <t>T1_Input1</t>
-  </si>
-  <si>
-    <t>T1_output1</t>
-  </si>
-  <si>
     <t>T2_参数1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,41 +156,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rule_T1_6</t>
-  </si>
-  <si>
     <t>string[正常方式、民丰任一台主变停运、长阳铺任一台主变停运]</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule_T1_2</t>
-  </si>
-  <si>
-    <t>Rule_T1_3</t>
-  </si>
-  <si>
-    <t>Rule_T1_4</t>
-  </si>
-  <si>
-    <t>Rule_T1_5</t>
-  </si>
-  <si>
-    <t>Rule_T1_7</t>
-  </si>
-  <si>
-    <t>Rule_T1_8</t>
-  </si>
-  <si>
-    <t>Rule_T1_9</t>
-  </si>
-  <si>
-    <t>Rule_T1_10</t>
-  </si>
-  <si>
-    <t>Rule_T1_11</t>
-  </si>
-  <si>
-    <t>Rule_T1_12</t>
   </si>
   <si>
     <t>T2_P5</t>
@@ -336,6 +264,126 @@
   </si>
   <si>
     <t>T2_output1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民丰主变1功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民丰主变2功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳铺主变功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_Input1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_output1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越界判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越界结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_P1+T1_P2+T1_P3 &gt; 1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民丰、长阳铺3台主变功率之和越界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_P1+T1_P2 &gt; 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民丰2台主变功率之和越界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1_P1+T1_P2+T1_P3 &gt; 950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳铺主变停运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_T2_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,30 +464,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -449,6 +491,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -752,7 +797,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -786,200 +831,200 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27">
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="17"/>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="18"/>
+      <c r="C9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27">
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="18"/>
-      <c r="C7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="19"/>
-      <c r="C9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
       <c r="I11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1046,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1017,7 +1062,7 @@
     <col min="10" max="10" width="24.875" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
     <col min="12" max="12" width="7.375" customWidth="1"/>
-    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1052,516 +1097,516 @@
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>33</v>
+      <c r="I2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="40.5">
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M6" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" collapsed="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B8" s="19"/>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B9" s="19"/>
+      <c r="C9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" collapsed="1">
+      <c r="B11" s="20"/>
+      <c r="C11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B12" s="20"/>
+      <c r="C12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="40.5">
-      <c r="B4" s="7" t="s">
+    <row r="13" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B13" s="20"/>
+      <c r="C13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="M13" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" collapsed="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" collapsed="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="M15" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B16" s="21"/>
+      <c r="C16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="27" hidden="1" outlineLevel="1">
-      <c r="B8" s="20"/>
-      <c r="C8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="M16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="27" hidden="1" outlineLevel="1">
+      <c r="B17" s="21"/>
+      <c r="C17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="27" hidden="1" outlineLevel="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" collapsed="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="27" hidden="1" outlineLevel="1">
-      <c r="B12" s="21"/>
-      <c r="C12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="27" hidden="1" outlineLevel="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" collapsed="1">
-      <c r="B15" s="22"/>
-      <c r="C15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="27" hidden="1" outlineLevel="1">
-      <c r="B16" s="22"/>
-      <c r="C16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="27" hidden="1" outlineLevel="1">
-      <c r="B17" s="22"/>
-      <c r="C17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M17" s="4" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/dmn.tool/docs/DMN_mike.xlsx
+++ b/dmn.tool/docs/DMN_mike.xlsx
@@ -783,7 +783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -796,7 +796,7 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1043,29 +1043,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="12" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="16.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="17.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="24.875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
-    <col min="13" max="13" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="24.875" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="7.375" customWidth="1"/>
+    <col min="14" max="14" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1081,9 +1082,7 @@
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1094,13 +1093,16 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1119,23 +1121,24 @@
       <c r="F2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1154,23 +1157,24 @@
       <c r="F3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="40.5">
+    <row r="4" spans="1:14" ht="40.5">
       <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1186,9 +1190,7 @@
       <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1199,10 +1201,13 @@
         <v>2</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
@@ -1218,26 +1223,27 @@
       <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:13" collapsed="1">
+    <row r="7" spans="1:14">
       <c r="B7" s="19"/>
       <c r="C7" s="9" t="s">
         <v>3</v>
@@ -1251,26 +1257,27 @@
       <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:14" ht="27">
       <c r="B8" s="19"/>
       <c r="C8" s="9" t="s">
         <v>3</v>
@@ -1284,26 +1291,27 @@
       <c r="F8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:14" ht="27">
       <c r="B9" s="19"/>
       <c r="C9" s="9" t="s">
         <v>3</v>
@@ -1317,26 +1325,27 @@
       <c r="F9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="B10" s="20" t="s">
         <v>7</v>
       </c>
@@ -1352,26 +1361,27 @@
       <c r="F10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:13" collapsed="1">
+    <row r="11" spans="1:14">
       <c r="B11" s="20"/>
       <c r="C11" s="9" t="s">
         <v>3</v>
@@ -1385,26 +1395,27 @@
       <c r="F11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+    <row r="12" spans="1:14" ht="27">
       <c r="B12" s="20"/>
       <c r="C12" s="9" t="s">
         <v>3</v>
@@ -1418,26 +1429,27 @@
       <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="L12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+    <row r="13" spans="1:14" ht="27">
       <c r="B13" s="20"/>
       <c r="C13" s="9" t="s">
         <v>3</v>
@@ -1451,26 +1463,27 @@
       <c r="F13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="B14" s="21" t="s">
         <v>34</v>
       </c>
@@ -1486,26 +1499,27 @@
       <c r="F14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:13" collapsed="1">
+    <row r="15" spans="1:14">
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
         <v>3</v>
@@ -1519,26 +1533,27 @@
       <c r="F15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:14" ht="27">
       <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
         <v>3</v>
@@ -1552,26 +1567,27 @@
       <c r="F16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="L16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="27" hidden="1" outlineLevel="1">
+    <row r="17" spans="2:14" ht="27">
       <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
         <v>3</v>
@@ -1585,26 +1601,27 @@
       <c r="F17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:14">
       <c r="D18" t="s">
         <v>15</v>
       </c>

--- a/dmn.tool/docs/DMN_mike.xlsx
+++ b/dmn.tool/docs/DMN_mike.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="85">
   <si>
     <t>input</t>
   </si>
@@ -384,6 +384,10 @@
   </si>
   <si>
     <t>运行方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -796,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -894,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>17</v>
@@ -1043,30 +1047,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="24.875" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="7.375" customWidth="1"/>
-    <col min="14" max="14" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="24.875" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1085,9 @@
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1093,16 +1098,13 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1121,24 +1123,23 @@
       <c r="F2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="H2" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="I2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="J2" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1157,24 +1158,23 @@
       <c r="F3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="H3" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="40.5">
+    <row r="4" spans="1:13" ht="40.5">
       <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1190,7 +1190,9 @@
       <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1198,16 +1200,13 @@
         <v>2</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
@@ -1223,27 +1222,26 @@
       <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>3</v>
+      <c r="J6" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="B7" s="19"/>
       <c r="C7" s="9" t="s">
         <v>3</v>
@@ -1257,27 +1255,26 @@
       <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="27">
+    <row r="8" spans="1:13" ht="27" outlineLevel="1">
       <c r="B8" s="19"/>
       <c r="C8" s="9" t="s">
         <v>3</v>
@@ -1291,27 +1288,26 @@
       <c r="F8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27">
+    <row r="9" spans="1:13" ht="27" outlineLevel="1">
       <c r="B9" s="19"/>
       <c r="C9" s="9" t="s">
         <v>3</v>
@@ -1325,27 +1321,26 @@
       <c r="F9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="B10" s="20" t="s">
         <v>7</v>
       </c>
@@ -1361,27 +1356,26 @@
       <c r="F10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>3</v>
+      <c r="J10" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="B11" s="20"/>
       <c r="C11" s="9" t="s">
         <v>3</v>
@@ -1395,27 +1389,26 @@
       <c r="F11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="27">
+    <row r="12" spans="1:13" ht="27" outlineLevel="1">
       <c r="B12" s="20"/>
       <c r="C12" s="9" t="s">
         <v>3</v>
@@ -1429,27 +1422,26 @@
       <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="14" t="s">
+      <c r="J12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="K12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="27">
+    <row r="13" spans="1:13" ht="27" outlineLevel="1">
       <c r="B13" s="20"/>
       <c r="C13" s="9" t="s">
         <v>3</v>
@@ -1463,27 +1455,26 @@
       <c r="F13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:13">
       <c r="B14" s="21" t="s">
         <v>34</v>
       </c>
@@ -1499,27 +1490,26 @@
       <c r="F14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>3</v>
+      <c r="J14" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
         <v>3</v>
@@ -1533,27 +1523,26 @@
       <c r="F15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="27">
+    <row r="16" spans="1:13" ht="27" outlineLevel="1">
       <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
         <v>3</v>
@@ -1567,27 +1556,26 @@
       <c r="F16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="14" t="s">
+      <c r="J16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="K16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="27">
+    <row r="17" spans="2:13" ht="27" outlineLevel="1">
       <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
         <v>3</v>
@@ -1601,27 +1589,26 @@
       <c r="F17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="H17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:13">
       <c r="D18" t="s">
         <v>15</v>
       </c>
